--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.0373175</v>
+        <v>1.2518875</v>
       </c>
       <c r="N2">
-        <v>4.074635</v>
+        <v>2.503775</v>
       </c>
       <c r="O2">
-        <v>0.1778084280540766</v>
+        <v>0.04129929742548428</v>
       </c>
       <c r="P2">
-        <v>0.1340467055293281</v>
+        <v>0.02875964625948109</v>
       </c>
       <c r="Q2">
-        <v>397.4383464827237</v>
+        <v>227.2105800691563</v>
       </c>
       <c r="R2">
-        <v>1589.753385930895</v>
+        <v>908.8423202766252</v>
       </c>
       <c r="S2">
-        <v>0.04695219171536449</v>
+        <v>0.009248921773096663</v>
       </c>
       <c r="T2">
-        <v>0.02657216239526324</v>
+        <v>0.004757849448781391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.28362</v>
       </c>
       <c r="O3">
-        <v>0.008251050112823555</v>
+        <v>0.003118839015970112</v>
       </c>
       <c r="P3">
-        <v>0.009330486441663618</v>
+        <v>0.003257805063200178</v>
       </c>
       <c r="Q3">
-        <v>18.44279120779</v>
+        <v>17.15848128505</v>
       </c>
       <c r="R3">
-        <v>110.65674724674</v>
+        <v>102.9508877103</v>
       </c>
       <c r="S3">
-        <v>0.002178776849838358</v>
+        <v>0.0006984597772791552</v>
       </c>
       <c r="T3">
-        <v>0.001849588171344074</v>
+        <v>0.0005389546826944826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H4">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I4">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J4">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.802966333333333</v>
+        <v>2.896683666666667</v>
       </c>
       <c r="N4">
-        <v>5.408899</v>
+        <v>8.690051</v>
       </c>
       <c r="O4">
-        <v>0.1573552524652747</v>
+        <v>0.09556050387691309</v>
       </c>
       <c r="P4">
-        <v>0.1779411141098227</v>
+        <v>0.09981839132384096</v>
       </c>
       <c r="Q4">
-        <v>351.7212993478038</v>
+        <v>525.7318857965943</v>
       </c>
       <c r="R4">
-        <v>2110.327796086823</v>
+        <v>3154.391314779566</v>
       </c>
       <c r="S4">
-        <v>0.04155131487311842</v>
+        <v>0.02140064553277097</v>
       </c>
       <c r="T4">
-        <v>0.03527337850079258</v>
+        <v>0.01651344643996852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H5">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I5">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J5">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.93936</v>
+        <v>2.6271815</v>
       </c>
       <c r="N5">
-        <v>3.87872</v>
+        <v>5.254363</v>
       </c>
       <c r="O5">
-        <v>0.1692591130400412</v>
+        <v>0.08666972883684031</v>
       </c>
       <c r="P5">
-        <v>0.1276015244729198</v>
+        <v>0.06035431346622832</v>
       </c>
       <c r="Q5">
-        <v>378.3288719773599</v>
+        <v>476.8187497374613</v>
       </c>
       <c r="R5">
-        <v>1513.31548790944</v>
+        <v>1907.274998949845</v>
       </c>
       <c r="S5">
-        <v>0.04469465487098073</v>
+        <v>0.01940956849335643</v>
       </c>
       <c r="T5">
-        <v>0.02529453011760696</v>
+        <v>0.009984710328702594</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H6">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I6">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J6">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9836116666666667</v>
+        <v>22.576248</v>
       </c>
       <c r="N6">
-        <v>2.950835</v>
+        <v>67.72874399999999</v>
       </c>
       <c r="O6">
-        <v>0.08584545328141067</v>
+        <v>0.7447819240175291</v>
       </c>
       <c r="P6">
-        <v>0.09707610873382154</v>
+        <v>0.7779671572081964</v>
       </c>
       <c r="Q6">
-        <v>191.8822149130492</v>
+        <v>4097.46275433306</v>
       </c>
       <c r="R6">
-        <v>1151.293289478295</v>
+        <v>24584.77652599836</v>
       </c>
       <c r="S6">
-        <v>0.02266839780584152</v>
+        <v>0.1667929040604926</v>
       </c>
       <c r="T6">
-        <v>0.01924345783649986</v>
+        <v>0.1287029255053093</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H7">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I7">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J7">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.60014</v>
+        <v>0.8660209999999999</v>
       </c>
       <c r="N7">
-        <v>13.80042</v>
+        <v>2.598063</v>
       </c>
       <c r="O7">
-        <v>0.4014807030463735</v>
+        <v>0.02856970682726309</v>
       </c>
       <c r="P7">
-        <v>0.4540040607124443</v>
+        <v>0.02984268667905311</v>
       </c>
       <c r="Q7">
-        <v>897.3918081933898</v>
+        <v>157.1779682775575</v>
       </c>
       <c r="R7">
-        <v>5384.350849160339</v>
+        <v>943.0678096653451</v>
       </c>
       <c r="S7">
-        <v>0.1060152161837891</v>
+        <v>0.006398147184039257</v>
       </c>
       <c r="T7">
-        <v>0.08999750931380081</v>
+        <v>0.004937022141545996</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J8">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.0373175</v>
+        <v>1.2518875</v>
       </c>
       <c r="N8">
-        <v>4.074635</v>
+        <v>2.503775</v>
       </c>
       <c r="O8">
-        <v>0.1778084280540766</v>
+        <v>0.04129929742548428</v>
       </c>
       <c r="P8">
-        <v>0.1340467055293281</v>
+        <v>0.02875964625948109</v>
       </c>
       <c r="Q8">
-        <v>127.1447523083408</v>
+        <v>78.12769787007085</v>
       </c>
       <c r="R8">
-        <v>762.868513850045</v>
+        <v>468.766187220425</v>
       </c>
       <c r="S8">
-        <v>0.01502050529048095</v>
+        <v>0.003180296294708101</v>
       </c>
       <c r="T8">
-        <v>0.01275107586852951</v>
+        <v>0.002454021886651592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J9">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.28362</v>
       </c>
       <c r="O9">
-        <v>0.008251050112823555</v>
+        <v>0.003118839015970112</v>
       </c>
       <c r="P9">
-        <v>0.009330486441663618</v>
+        <v>0.003257805063200178</v>
       </c>
       <c r="Q9">
         <v>5.900044977393334</v>
@@ -1013,10 +1013,10 @@
         <v>53.10040479654</v>
       </c>
       <c r="S9">
-        <v>0.0006970138773961686</v>
+        <v>0.0002401695133961349</v>
       </c>
       <c r="T9">
-        <v>0.0008875543791854585</v>
+        <v>0.0002779841189771942</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J10">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.802966333333333</v>
+        <v>2.896683666666667</v>
       </c>
       <c r="N10">
-        <v>5.408899</v>
+        <v>8.690051</v>
       </c>
       <c r="O10">
-        <v>0.1573552524652747</v>
+        <v>0.09556050387691309</v>
       </c>
       <c r="P10">
-        <v>0.1779411141098227</v>
+        <v>0.09981839132384096</v>
       </c>
       <c r="Q10">
-        <v>112.5193829002814</v>
+        <v>180.7760092935686</v>
       </c>
       <c r="R10">
-        <v>1012.674446102533</v>
+        <v>1626.984083642117</v>
       </c>
       <c r="S10">
-        <v>0.01329270737054601</v>
+        <v>0.007358738170994979</v>
       </c>
       <c r="T10">
-        <v>0.01692649317404219</v>
+        <v>0.008517368912988809</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J11">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.93936</v>
+        <v>2.6271815</v>
       </c>
       <c r="N11">
-        <v>3.87872</v>
+        <v>5.254363</v>
       </c>
       <c r="O11">
-        <v>0.1692591130400412</v>
+        <v>0.08666972883684031</v>
       </c>
       <c r="P11">
-        <v>0.1276015244729198</v>
+        <v>0.06035431346622832</v>
       </c>
       <c r="Q11">
-        <v>121.0314282563733</v>
+        <v>163.9569390075702</v>
       </c>
       <c r="R11">
-        <v>726.18856953824</v>
+        <v>983.7416340454209</v>
       </c>
       <c r="S11">
-        <v>0.0142982952535121</v>
+        <v>0.006674094589150918</v>
       </c>
       <c r="T11">
-        <v>0.01213798364584381</v>
+        <v>0.005149952293002493</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>187.223767</v>
       </c>
       <c r="I12">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J12">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9836116666666667</v>
+        <v>22.576248</v>
       </c>
       <c r="N12">
-        <v>2.950835</v>
+        <v>67.72874399999999</v>
       </c>
       <c r="O12">
-        <v>0.08584545328141067</v>
+        <v>0.7447819240175291</v>
       </c>
       <c r="P12">
-        <v>0.09707610873382154</v>
+        <v>0.7779671572081964</v>
       </c>
       <c r="Q12">
-        <v>61.38516049949389</v>
+        <v>1408.936731762072</v>
       </c>
       <c r="R12">
-        <v>552.466444495445</v>
+        <v>12680.43058585865</v>
       </c>
       <c r="S12">
-        <v>0.007251861451612451</v>
+        <v>0.05735272367749591</v>
       </c>
       <c r="T12">
-        <v>0.009234280116013408</v>
+        <v>0.06638288988883692</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>187.223767</v>
       </c>
       <c r="I13">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J13">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.60014</v>
+        <v>0.8660209999999999</v>
       </c>
       <c r="N13">
-        <v>13.80042</v>
+        <v>2.598063</v>
       </c>
       <c r="O13">
-        <v>0.4014807030463735</v>
+        <v>0.02856970682726309</v>
       </c>
       <c r="P13">
-        <v>0.4540040607124443</v>
+        <v>0.02984268667905311</v>
       </c>
       <c r="Q13">
-        <v>287.08517984246</v>
+        <v>54.04657130703567</v>
       </c>
       <c r="R13">
-        <v>2583.76661858214</v>
+        <v>486.419141763321</v>
       </c>
       <c r="S13">
-        <v>0.03391539473202042</v>
+        <v>0.002200040640584241</v>
       </c>
       <c r="T13">
-        <v>0.04318674002397076</v>
+        <v>0.002546436267196411</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H14">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I14">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J14">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.0373175</v>
+        <v>1.2518875</v>
       </c>
       <c r="N14">
-        <v>4.074635</v>
+        <v>2.503775</v>
       </c>
       <c r="O14">
-        <v>0.1778084280540766</v>
+        <v>0.04129929742548428</v>
       </c>
       <c r="P14">
-        <v>0.1340467055293281</v>
+        <v>0.02875964625948109</v>
       </c>
       <c r="Q14">
-        <v>291.0554795063483</v>
+        <v>215.3221858681042</v>
       </c>
       <c r="R14">
-        <v>1746.33287703809</v>
+        <v>1291.933115208625</v>
       </c>
       <c r="S14">
-        <v>0.03438443420099989</v>
+        <v>0.008764988199493708</v>
       </c>
       <c r="T14">
-        <v>0.02918933289622855</v>
+        <v>0.006763355009906304</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H15">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I15">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J15">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.28362</v>
       </c>
       <c r="O15">
-        <v>0.008251050112823555</v>
+        <v>0.003118839015970112</v>
       </c>
       <c r="P15">
-        <v>0.009330486441663618</v>
+        <v>0.003257805063200178</v>
       </c>
       <c r="Q15">
-        <v>13.50618400545333</v>
+        <v>16.26069391376667</v>
       </c>
       <c r="R15">
-        <v>121.55565604908</v>
+        <v>146.3462452239</v>
       </c>
       <c r="S15">
-        <v>0.001595580663967462</v>
+        <v>0.0006619140972173099</v>
       </c>
       <c r="T15">
-        <v>0.002031759555402715</v>
+        <v>0.0007661322394822322</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H16">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I16">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J16">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.802966333333333</v>
+        <v>2.896683666666667</v>
       </c>
       <c r="N16">
-        <v>5.408899</v>
+        <v>8.690051</v>
       </c>
       <c r="O16">
-        <v>0.1573552524652747</v>
+        <v>0.09556050387691309</v>
       </c>
       <c r="P16">
-        <v>0.1779411141098227</v>
+        <v>0.09981839132384096</v>
       </c>
       <c r="Q16">
-        <v>257.5755770429184</v>
+        <v>498.2238890276494</v>
       </c>
       <c r="R16">
-        <v>2318.180193386266</v>
+        <v>4484.015001248846</v>
       </c>
       <c r="S16">
-        <v>0.03042921746616226</v>
+        <v>0.02028089437429442</v>
       </c>
       <c r="T16">
-        <v>0.03874755739178545</v>
+        <v>0.02347411407462384</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H17">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I17">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J17">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.93936</v>
+        <v>2.6271815</v>
       </c>
       <c r="N17">
-        <v>3.87872</v>
+        <v>5.254363</v>
       </c>
       <c r="O17">
-        <v>0.1692591130400412</v>
+        <v>0.08666972883684031</v>
       </c>
       <c r="P17">
-        <v>0.1276015244729198</v>
+        <v>0.06035431346622832</v>
       </c>
       <c r="Q17">
-        <v>277.0610642354133</v>
+        <v>451.8700468310808</v>
       </c>
       <c r="R17">
-        <v>1662.36638541248</v>
+        <v>2711.220280986485</v>
       </c>
       <c r="S17">
-        <v>0.03273117533818423</v>
+        <v>0.01839399694096169</v>
       </c>
       <c r="T17">
-        <v>0.02778586285428256</v>
+        <v>0.0141934168684951</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H18">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I18">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J18">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9836116666666667</v>
+        <v>22.576248</v>
       </c>
       <c r="N18">
-        <v>2.950835</v>
+        <v>67.72874399999999</v>
       </c>
       <c r="O18">
-        <v>0.08584545328141067</v>
+        <v>0.7447819240175291</v>
       </c>
       <c r="P18">
-        <v>0.09707610873382154</v>
+        <v>0.7779671572081964</v>
       </c>
       <c r="Q18">
-        <v>140.5208394320989</v>
+        <v>3883.070218418519</v>
       </c>
       <c r="R18">
-        <v>1264.68755488889</v>
+        <v>34947.63196576668</v>
       </c>
       <c r="S18">
-        <v>0.0166007166933165</v>
+        <v>0.1580657585516617</v>
       </c>
       <c r="T18">
-        <v>0.02113880265026011</v>
+        <v>0.1829531567521289</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H19">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I19">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J19">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.60014</v>
+        <v>0.8660209999999999</v>
       </c>
       <c r="N19">
-        <v>13.80042</v>
+        <v>2.598063</v>
       </c>
       <c r="O19">
-        <v>0.4014807030463735</v>
+        <v>0.02856970682726309</v>
       </c>
       <c r="P19">
-        <v>0.4540040607124443</v>
+        <v>0.02984268667905311</v>
       </c>
       <c r="Q19">
-        <v>657.1857128289199</v>
+        <v>148.9539073819983</v>
       </c>
       <c r="R19">
-        <v>5914.671415460279</v>
+        <v>1340.585166437985</v>
       </c>
       <c r="S19">
-        <v>0.07763797795158958</v>
+        <v>0.006063375379587814</v>
       </c>
       <c r="T19">
-        <v>0.09886162895272103</v>
+        <v>0.007018051704766682</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H20">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I20">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J20">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.0373175</v>
+        <v>1.2518875</v>
       </c>
       <c r="N20">
-        <v>4.074635</v>
+        <v>2.503775</v>
       </c>
       <c r="O20">
-        <v>0.1778084280540766</v>
+        <v>0.04129929742548428</v>
       </c>
       <c r="P20">
-        <v>0.1340467055293281</v>
+        <v>0.02875964625948109</v>
       </c>
       <c r="Q20">
-        <v>108.0126951703538</v>
+        <v>69.65852015150625</v>
       </c>
       <c r="R20">
-        <v>432.050780681415</v>
+        <v>278.634080606025</v>
       </c>
       <c r="S20">
-        <v>0.01276030060061687</v>
+        <v>0.002835546670031224</v>
       </c>
       <c r="T20">
-        <v>0.007221575125342032</v>
+        <v>0.001458667776847783</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H21">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I21">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J21">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.28362</v>
       </c>
       <c r="O21">
-        <v>0.008251050112823555</v>
+        <v>0.003118839015970112</v>
       </c>
       <c r="P21">
-        <v>0.009330486441663618</v>
+        <v>0.003257805063200178</v>
       </c>
       <c r="Q21">
-        <v>5.01223800483</v>
+        <v>5.26046988657</v>
       </c>
       <c r="R21">
-        <v>30.07342802898</v>
+        <v>31.56281931942</v>
       </c>
       <c r="S21">
-        <v>0.0005921309853679257</v>
+        <v>0.0002141347223171027</v>
       </c>
       <c r="T21">
-        <v>0.0005026666528534475</v>
+        <v>0.0001652334394542514</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H22">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I22">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J22">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.802966333333333</v>
+        <v>2.896683666666667</v>
       </c>
       <c r="N22">
-        <v>5.408899</v>
+        <v>8.690051</v>
       </c>
       <c r="O22">
-        <v>0.1573552524652747</v>
+        <v>0.09556050387691309</v>
       </c>
       <c r="P22">
-        <v>0.1779411141098227</v>
+        <v>0.09981839132384096</v>
       </c>
       <c r="Q22">
-        <v>95.5880725339785</v>
+        <v>161.1795768925235</v>
       </c>
       <c r="R22">
-        <v>573.528435203871</v>
+        <v>967.0774613551412</v>
       </c>
       <c r="S22">
-        <v>0.01129249240048511</v>
+        <v>0.006561038212419649</v>
       </c>
       <c r="T22">
-        <v>0.009586323799281996</v>
+        <v>0.005062714250627097</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H23">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I23">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J23">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.93936</v>
+        <v>2.6271815</v>
       </c>
       <c r="N23">
-        <v>3.87872</v>
+        <v>5.254363</v>
       </c>
       <c r="O23">
-        <v>0.1692591130400412</v>
+        <v>0.08666972883684031</v>
       </c>
       <c r="P23">
-        <v>0.1276015244729198</v>
+        <v>0.06035431346622832</v>
       </c>
       <c r="Q23">
-        <v>102.81927117672</v>
+        <v>146.1837229458833</v>
       </c>
       <c r="R23">
-        <v>411.27708470688</v>
+        <v>584.734891783533</v>
       </c>
       <c r="S23">
-        <v>0.01214676483798541</v>
+        <v>0.005950611180231958</v>
       </c>
       <c r="T23">
-        <v>0.006874350186008476</v>
+        <v>0.003061125698579644</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H24">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I24">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J24">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.9836116666666667</v>
+        <v>22.576248</v>
       </c>
       <c r="N24">
-        <v>2.950835</v>
+        <v>67.72874399999999</v>
       </c>
       <c r="O24">
-        <v>0.08584545328141067</v>
+        <v>0.7447819240175291</v>
       </c>
       <c r="P24">
-        <v>0.09707610873382154</v>
+        <v>0.7779671572081964</v>
       </c>
       <c r="Q24">
-        <v>52.1482523552025</v>
+        <v>1256.205550621284</v>
       </c>
       <c r="R24">
-        <v>312.889514131215</v>
+        <v>7537.233303727704</v>
       </c>
       <c r="S24">
-        <v>0.006160640421014607</v>
+        <v>0.05113558913097149</v>
       </c>
       <c r="T24">
-        <v>0.005229836938765965</v>
+        <v>0.03945791312684752</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H25">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I25">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J25">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.60014</v>
+        <v>0.8660209999999999</v>
       </c>
       <c r="N25">
-        <v>13.80042</v>
+        <v>2.598063</v>
       </c>
       <c r="O25">
-        <v>0.4014807030463735</v>
+        <v>0.02856970682726309</v>
       </c>
       <c r="P25">
-        <v>0.4540040607124443</v>
+        <v>0.02984268667905311</v>
       </c>
       <c r="Q25">
-        <v>243.88614909603</v>
+        <v>48.1878294017055</v>
       </c>
       <c r="R25">
-        <v>1463.31689457618</v>
+        <v>289.126976410233</v>
       </c>
       <c r="S25">
-        <v>0.0288119889044892</v>
+        <v>0.001961552426018401</v>
       </c>
       <c r="T25">
-        <v>0.0244588214137641</v>
+        <v>0.001513598777973453</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H26">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I26">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J26">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.0373175</v>
+        <v>1.2518875</v>
       </c>
       <c r="N26">
-        <v>4.074635</v>
+        <v>2.503775</v>
       </c>
       <c r="O26">
-        <v>0.1778084280540766</v>
+        <v>0.04129929742548428</v>
       </c>
       <c r="P26">
-        <v>0.1340467055293281</v>
+        <v>0.02875964625948109</v>
       </c>
       <c r="Q26">
-        <v>292.9333212252949</v>
+        <v>254.6167879233375</v>
       </c>
       <c r="R26">
-        <v>1757.59992735177</v>
+        <v>1527.700727540025</v>
       </c>
       <c r="S26">
-        <v>0.03460627687214467</v>
+        <v>0.01036452947262984</v>
       </c>
       <c r="T26">
-        <v>0.02937765763470703</v>
+        <v>0.007997613999991658</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H27">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I27">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J27">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.28362</v>
       </c>
       <c r="O27">
-        <v>0.008251050112823555</v>
+        <v>0.003118839015970112</v>
       </c>
       <c r="P27">
-        <v>0.009330486441663618</v>
+        <v>0.003257805063200178</v>
       </c>
       <c r="Q27">
-        <v>13.59332366636</v>
+        <v>19.22814240918</v>
       </c>
       <c r="R27">
-        <v>122.33991299724</v>
+        <v>173.05328168262</v>
       </c>
       <c r="S27">
-        <v>0.001605875085985644</v>
+        <v>0.0007827082036863733</v>
       </c>
       <c r="T27">
-        <v>0.002044868131343202</v>
+        <v>0.0009059453356142759</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H28">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I28">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J28">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.802966333333333</v>
+        <v>2.896683666666667</v>
       </c>
       <c r="N28">
-        <v>5.408899</v>
+        <v>8.690051</v>
       </c>
       <c r="O28">
-        <v>0.1573552524652747</v>
+        <v>0.09556050387691309</v>
       </c>
       <c r="P28">
-        <v>0.1779411141098227</v>
+        <v>0.09981839132384096</v>
       </c>
       <c r="Q28">
-        <v>259.2374119795886</v>
+        <v>589.1458224773889</v>
       </c>
       <c r="R28">
-        <v>2333.136707816298</v>
+        <v>5302.312402296501</v>
       </c>
       <c r="S28">
-        <v>0.03062554173440753</v>
+        <v>0.02398199777220567</v>
       </c>
       <c r="T28">
-        <v>0.03899755021068371</v>
+        <v>0.02775795490339248</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H29">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I29">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J29">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.93936</v>
+        <v>2.6271815</v>
       </c>
       <c r="N29">
-        <v>3.87872</v>
+        <v>5.254363</v>
       </c>
       <c r="O29">
-        <v>0.1692591130400412</v>
+        <v>0.08666972883684031</v>
       </c>
       <c r="P29">
-        <v>0.1276015244729198</v>
+        <v>0.06035431346622832</v>
       </c>
       <c r="Q29">
-        <v>278.84861630624</v>
+        <v>534.3327693755355</v>
       </c>
       <c r="R29">
-        <v>1673.09169783744</v>
+        <v>3205.996616253213</v>
       </c>
       <c r="S29">
-        <v>0.03294235145713051</v>
+        <v>0.02175075642715329</v>
       </c>
       <c r="T29">
-        <v>0.02796513263663883</v>
+        <v>0.01678360359450756</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H30">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I30">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J30">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.9836116666666667</v>
+        <v>22.576248</v>
       </c>
       <c r="N30">
-        <v>2.950835</v>
+        <v>67.72874399999999</v>
       </c>
       <c r="O30">
-        <v>0.08584545328141067</v>
+        <v>0.7447819240175291</v>
       </c>
       <c r="P30">
-        <v>0.09707610873382154</v>
+        <v>0.7779671572081964</v>
       </c>
       <c r="Q30">
-        <v>141.4274566004633</v>
+        <v>4591.699932398615</v>
       </c>
       <c r="R30">
-        <v>1272.84710940417</v>
+        <v>41325.29939158754</v>
       </c>
       <c r="S30">
-        <v>0.01670782176628745</v>
+        <v>0.1869115138360279</v>
       </c>
       <c r="T30">
-        <v>0.02127518670175629</v>
+        <v>0.2163406660807185</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H31">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I31">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J31">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.60014</v>
+        <v>0.8660209999999999</v>
       </c>
       <c r="N31">
-        <v>13.80042</v>
+        <v>2.598063</v>
       </c>
       <c r="O31">
-        <v>0.4014807030463735</v>
+        <v>0.02856970682726309</v>
       </c>
       <c r="P31">
-        <v>0.4540040607124443</v>
+        <v>0.02984268667905311</v>
       </c>
       <c r="Q31">
-        <v>661.4257661367599</v>
+        <v>176.136821634657</v>
       </c>
       <c r="R31">
-        <v>5952.831895230839</v>
+        <v>1585.231394711913</v>
       </c>
       <c r="S31">
-        <v>0.07813888531887031</v>
+        <v>0.007169893603391968</v>
       </c>
       <c r="T31">
-        <v>0.09949946779899638</v>
+        <v>0.008298790834504027</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H32">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I32">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J32">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.0373175</v>
+        <v>1.2518875</v>
       </c>
       <c r="N32">
-        <v>4.074635</v>
+        <v>2.503775</v>
       </c>
       <c r="O32">
-        <v>0.1778084280540766</v>
+        <v>0.04129929742548428</v>
       </c>
       <c r="P32">
-        <v>0.1340467055293281</v>
+        <v>0.02875964625948109</v>
       </c>
       <c r="Q32">
-        <v>288.5184698222291</v>
+        <v>169.6297693453542</v>
       </c>
       <c r="R32">
-        <v>1731.110818933375</v>
+        <v>1017.778616072125</v>
       </c>
       <c r="S32">
-        <v>0.03408471937446973</v>
+        <v>0.006905015015524743</v>
       </c>
       <c r="T32">
-        <v>0.02893490160925773</v>
+        <v>0.005328138137302355</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H33">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I33">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J33">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>0.28362</v>
       </c>
       <c r="O33">
-        <v>0.008251050112823555</v>
+        <v>0.003118839015970112</v>
       </c>
       <c r="P33">
-        <v>0.009330486441663618</v>
+        <v>0.003257805063200178</v>
       </c>
       <c r="Q33">
-        <v>13.38845621116667</v>
+        <v>12.81009547096667</v>
       </c>
       <c r="R33">
-        <v>120.4961059005</v>
+        <v>115.2908592387</v>
       </c>
       <c r="S33">
-        <v>0.001581672650267996</v>
+        <v>0.0005214527020740355</v>
       </c>
       <c r="T33">
-        <v>0.002014049551534721</v>
+        <v>0.0006035552469777411</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H34">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I34">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J34">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.802966333333333</v>
+        <v>2.896683666666667</v>
       </c>
       <c r="N34">
-        <v>5.408899</v>
+        <v>8.690051</v>
       </c>
       <c r="O34">
-        <v>0.1573552524652747</v>
+        <v>0.09556050387691309</v>
       </c>
       <c r="P34">
-        <v>0.1779411141098227</v>
+        <v>0.09981839132384096</v>
       </c>
       <c r="Q34">
-        <v>255.3303977579972</v>
+        <v>392.4983532810428</v>
       </c>
       <c r="R34">
-        <v>2297.973579821975</v>
+        <v>3532.485179529385</v>
       </c>
       <c r="S34">
-        <v>0.03016397862055538</v>
+        <v>0.0159771898142274</v>
       </c>
       <c r="T34">
-        <v>0.03840981103323673</v>
+        <v>0.0184927927422402</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H35">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I35">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J35">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.93936</v>
+        <v>2.6271815</v>
       </c>
       <c r="N35">
-        <v>3.87872</v>
+        <v>5.254363</v>
       </c>
       <c r="O35">
-        <v>0.1692591130400412</v>
+        <v>0.08666972883684031</v>
       </c>
       <c r="P35">
-        <v>0.1276015244729198</v>
+        <v>0.06035431346622832</v>
       </c>
       <c r="Q35">
-        <v>274.6460380546666</v>
+        <v>355.9810221552508</v>
       </c>
       <c r="R35">
-        <v>1647.876228328</v>
+        <v>2135.886132931505</v>
       </c>
       <c r="S35">
-        <v>0.03244587128224817</v>
+        <v>0.01449070120598601</v>
       </c>
       <c r="T35">
-        <v>0.02754366503253915</v>
+        <v>0.01118150468294092</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H36">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I36">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J36">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.9836116666666667</v>
+        <v>22.576248</v>
       </c>
       <c r="N36">
-        <v>2.950835</v>
+        <v>67.72874399999999</v>
       </c>
       <c r="O36">
-        <v>0.08584545328141067</v>
+        <v>0.7447819240175291</v>
       </c>
       <c r="P36">
-        <v>0.09707610873382154</v>
+        <v>0.7779671572081964</v>
       </c>
       <c r="Q36">
-        <v>139.2959776598194</v>
+        <v>3059.06380639116</v>
       </c>
       <c r="R36">
-        <v>1253.663798938375</v>
+        <v>27531.57425752044</v>
       </c>
       <c r="S36">
-        <v>0.01645601514333814</v>
+        <v>0.1245234347608794</v>
       </c>
       <c r="T36">
-        <v>0.02095454449052591</v>
+        <v>0.1441296058543551</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H37">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I37">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J37">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.60014</v>
+        <v>0.8660209999999999</v>
       </c>
       <c r="N37">
-        <v>13.80042</v>
+        <v>2.598063</v>
       </c>
       <c r="O37">
-        <v>0.4014807030463735</v>
+        <v>0.02856970682726309</v>
       </c>
       <c r="P37">
-        <v>0.4540040607124443</v>
+        <v>0.02984268667905311</v>
       </c>
       <c r="Q37">
-        <v>651.4572980244999</v>
+        <v>117.3451627867783</v>
       </c>
       <c r="R37">
-        <v>5863.115682220499</v>
+        <v>1056.106465081005</v>
       </c>
       <c r="S37">
-        <v>0.07696123995561477</v>
+        <v>0.004776697593641404</v>
       </c>
       <c r="T37">
-        <v>0.09799989320919117</v>
+        <v>0.005528786953066535</v>
       </c>
     </row>
   </sheetData>
